--- a/Used_Car_Dataset.xlsx
+++ b/Used_Car_Dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>Toyota</x:t>
   </x:si>
@@ -98,111 +98,6 @@
   </x:si>
   <x:si>
     <x:t>250,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141 LX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,598 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AE 91 SE Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 G Grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CE 110 Crystal Light</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diesel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,970 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112,525 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 G LIMITED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ae110 Automatic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,330 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AE 110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NZT 121 X GREAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KE20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1973</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,200 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140,400 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,590 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dx wagon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175,000 km</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -751,486 +646,6 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J18" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J19" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="J20" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J21" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Used_Car_Dataset.xlsx
+++ b/Used_Car_Dataset.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <x:si>
-    <x:t>Toyota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corolla</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corolla 141 Auto</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
     <x:t>2008</x:t>
   </x:si>
@@ -46,7 +37,7 @@
     <x:t>82,000 km</x:t>
   </x:si>
   <x:si>
-    <x:t>121 G Grade D/L</x:t>
+    <x:t>Rs 3,550,000</x:t>
   </x:si>
   <x:si>
     <x:t>2004</x:t>
@@ -58,7 +49,7 @@
     <x:t>190,000 km</x:t>
   </x:si>
   <x:si>
-    <x:t>121</x:t>
+    <x:t>Rs 3,375,000</x:t>
   </x:si>
   <x:si>
     <x:t>2005</x:t>
@@ -67,13 +58,13 @@
     <x:t>135,000 km</x:t>
   </x:si>
   <x:si>
-    <x:t>121 LXI Brand New</x:t>
+    <x:t>Rs 3,250,000</x:t>
   </x:si>
   <x:si>
     <x:t>110,000 km</x:t>
   </x:si>
   <x:si>
-    <x:t>DS Wagon KE72</x:t>
+    <x:t>Rs 3,150,000</x:t>
   </x:si>
   <x:si>
     <x:t>1984</x:t>
@@ -91,13 +82,40 @@
     <x:t>230,000 km</x:t>
   </x:si>
   <x:si>
-    <x:t>DX Wagon</x:t>
+    <x:t>Rs 375,000</x:t>
   </x:si>
   <x:si>
     <x:t>1987</x:t>
   </x:si>
   <x:si>
     <x:t>250,000 km</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rs 475,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,598 cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136,000 km</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220,000 km</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rs 1,210,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125,000 km</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,171 +497,213 @@
       <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
+      <x:c r="B7" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>27</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Used_Car_Dataset.xlsx
+++ b/Used_Car_Dataset.xlsx
@@ -14,108 +14,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <x:si>
+    <x:t>1989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Used</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manual</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saloon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Petrol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2325000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Automatic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2795000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2995000</x:t>
+  </x:si>
   <x:si>
     <x:t>2008</x:t>
   </x:si>
   <x:si>
-    <x:t>Used</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Automatic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saloon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Petrol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,600 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 3,550,000</x:t>
+    <x:t>107000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3175000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Station wagon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1075000</x:t>
   </x:si>
   <x:si>
     <x:t>2004</x:t>
   </x:si>
   <x:si>
-    <x:t>1,500 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 3,375,000</x:t>
+    <x:t>190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3375000</x:t>
   </x:si>
   <x:si>
     <x:t>2005</x:t>
   </x:si>
   <x:si>
-    <x:t>135,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 3,250,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 3,150,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1984</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manual</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Station wagon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,300 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 375,000</x:t>
+    <x:t>3250000</x:t>
   </x:si>
   <x:si>
     <x:t>1987</x:t>
   </x:si>
   <x:si>
-    <x:t>250,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 475,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,598 cc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220,000 km</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rs 1,210,000</x:t>
+    <x:t>250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>875000</x:t>
   </x:si>
   <x:si>
     <x:t>2003</x:t>
   </x:si>
   <x:si>
-    <x:t>125,000 km</x:t>
+    <x:t>125000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diesel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hatchback</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1385000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2775000</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -515,33 +572,33 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>13</x:v>
@@ -552,7 +609,7 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>1</x:v>
@@ -567,143 +624,325 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>11</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
